--- a/summaries/trials/UPHS/lineages.xlsx
+++ b/summaries/trials/UPHS/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -284,6 +284,9 @@
     <t xml:space="preserve">UPHS|423|Saliva|20201202</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|424|NP-OP|20201209</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|425|NP-OP|20201203</t>
   </si>
   <si>
@@ -294,6 +297,15 @@
   </si>
   <si>
     <t xml:space="preserve">UPHS|428|Saliva|20201207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|434|NP-OP|20201214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|436|Saliva|20201214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|437|NP-OP|20201218</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1226,7 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -1222,14 +1234,46 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
         <v>93</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
         <v>73</v>
       </c>
     </row>

--- a/summaries/trials/UPHS/lineages.xlsx
+++ b/summaries/trials/UPHS/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -209,6 +209,24 @@
     <t xml:space="preserve">B.1.240</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|312|Saliva|20200727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|314|Saliva|20200729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|334|NP-OP|20200826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|346|NP-OP|20200916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|348|NP-OP|20200916</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|369|NP-OP|20201009</t>
   </si>
   <si>
@@ -299,6 +317,12 @@
     <t xml:space="preserve">UPHS|444|NP-OP|20210108</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|445|Saliva|20210111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|447|Saliva|20210111</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|448|Saliva|20210115</t>
   </si>
   <si>
@@ -306,6 +330,15 @@
   </si>
   <si>
     <t xml:space="preserve">UPHS|453|NP-OP|20210115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|459|Saliva|20200127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|461|Saliva|20200127</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1130,7 +1163,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1138,7 +1171,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64">
@@ -1146,63 +1179,63 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
         <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -1210,47 +1243,47 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1258,7 +1291,7 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -1266,7 +1299,7 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
@@ -1274,7 +1307,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81">
@@ -1282,7 +1315,7 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -1290,12 +1323,12 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
         <v>74</v>
@@ -1303,18 +1336,90 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/trials/UPHS/lineages.xlsx
+++ b/summaries/trials/UPHS/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">B.1.369</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|219|ETA|20200417</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|222-TCE|NP|20200417</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t xml:space="preserve">UPHS|228|Saliva|20200529</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|234|NP-OP-HI|20200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.61</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|235|NP-OP|20200424</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t xml:space="preserve">UPHS|263|NP-OP|20200515</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|263|NP-OP|20200518</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|266|NP-OP|20200520</t>
   </si>
   <si>
@@ -233,13 +221,10 @@
     <t xml:space="preserve">UPHS|373|NP-OP|20201012</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|377|Saliva|20201019</t>
+    <t xml:space="preserve">UPHS|379|Saliva|20201019</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS|379|Saliva|20201019</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|380|Saliva|20201023</t>
@@ -795,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -803,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -811,7 +796,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +820,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -843,20 +828,20 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -864,23 +849,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -888,7 +873,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -896,7 +881,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -904,7 +889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -912,7 +897,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -920,7 +905,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -928,7 +913,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -936,7 +921,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -944,7 +929,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -952,7 +937,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -960,7 +945,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -968,63 +953,63 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1032,58 +1017,58 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
         <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1091,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1115,7 +1100,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1123,7 +1108,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1139,7 +1124,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1147,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
@@ -1155,12 +1140,12 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1168,10 +1153,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
         <v>70</v>
-      </c>
-      <c r="B63" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64">
@@ -1179,7 +1164,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -1187,55 +1172,55 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -1243,55 +1228,55 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
         <v>90</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -1299,7 +1284,7 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
@@ -1307,7 +1292,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
@@ -1315,7 +1300,7 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
@@ -1323,63 +1308,63 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" t="s">
         <v>102</v>
-      </c>
-      <c r="B89" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="90">
@@ -1387,39 +1372,7 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/trials/UPHS/lineages.xlsx
+++ b/summaries/trials/UPHS/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,307 +23,535 @@
     <t xml:space="preserve">UPHS|197|ETA|20200330</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.350</t>
+    <t xml:space="preserve">VSP0009</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|203|ETA|20200408</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0010</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|209|ETA|20200408</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1</t>
+    <t xml:space="preserve">VSP0011</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|210|ETA|20200408</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|211|ETA|20200413</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0013</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|211-TCE|ETA|20200413</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0186</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|211-TCE|NP|20200408</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0184</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|211-TCE|OP|20200413</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0185</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|213|ETA|20200415</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.369</t>
+    <t xml:space="preserve">VSP0014</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|222-TCE|NP|20200417</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0180</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|222-TCE|OP|20200417</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0181</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|222-TCE|OP|20200420</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0182</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|223-TCE|OP|20200417</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0183</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|227|OP|20200422</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0020</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|228|NP|20200422</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0021</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|228|NP-OP|20200424</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0069</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|228|NP-OP|20200529</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0188</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|228|OP|20200422</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0022</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|228|Saliva|20200529</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0189</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|235|NP-OP|20200424</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0080</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|238|NP|20200429</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0039</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|239|NP|20200429</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0041</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|239|OP|20200429</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0042</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|240|NP-OP|20200501</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0046</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|242|ETA|20200504</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0052</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|242|NP|20200429</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0044</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|242|NP-OP|20200501</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0047</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|242|OP|20200429</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0045</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|247|NP-OP|20200501</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0050</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|251|ETA|20200506</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0088</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|251|NP-OP|20200504</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0065</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|251|NP-OP|20200506</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0089</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|256|ETA|20200508</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0100</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|256|ETA|20200511</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0123</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|256|NP-OP|20200508</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0107</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|257|NP-OP|20200508</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0102</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|261|ETA|20200515</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0140</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|262|NP-OP|20200515</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0141</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|263|ETA|20200515</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0142</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|263|NP-OP|20200515</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0143</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|266|NP-OP|20200520</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0155</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|266|NP-OP|20200522</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0163</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|266-TCE|NP-OP|20200520</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0262</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|266-TCE|NP-OP|20200522</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0263</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|269|ETA|20200527</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0176</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|269|ETA|20200612</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0202</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|269|NP-OP|20200522</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0166</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|272|ETA|20200529</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0195</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|272|NP-OP|20200527</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0179</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|272|NP-OP|20200529</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0196</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|290|NP-OP|20200629</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.291</t>
+    <t xml:space="preserve">VSP0230</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|290|NP-OP|20200701</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0233</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|300|NP-OP|20200713</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0244</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|307|NP-OP|20200717</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.240</t>
+    <t xml:space="preserve">VSP0256</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|312|Saliva|20200727</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0266</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|314|Saliva|20200729</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0271</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|334|NP-OP|20200826</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.340</t>
+    <t xml:space="preserve">VSP0327</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|346|NP-OP|20200916</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0356</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|348|NP-OP|20200916</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0359</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|369|NP-OP|20201009</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0393</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|373|NP-OP|20201012</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0399</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|379|Saliva|20201019</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
+    <t xml:space="preserve">VSP0415</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|380|Saliva|20201023</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0425</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|381|NP-OP|20201021</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.311</t>
+    <t xml:space="preserve">VSP0421</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|382|Saliva|20201021</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
+    <t xml:space="preserve">VSP0424</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|385|Saliva|20201026</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.304</t>
+    <t xml:space="preserve">VSP0429</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|391|NP-OP|20201104</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.317</t>
+    <t xml:space="preserve">VSP0448</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|401|Saliva|20201111</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0460</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|406|NP-OP|20201113</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0470</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|408|Saliva|20201118</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0483</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|409|Saliva|20201116</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0479</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|414|ETA|20201120</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0491</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|420|ETA|20201207</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0511</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|423|Saliva|20201202</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0503</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|424|NP-OP|20201209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0517</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|425|NP-OP|20201203</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0505</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|427|NP-OP|20201204</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.234</t>
+    <t xml:space="preserve">VSP0510</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|428|Saliva|20201207</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0514</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|434|NP-OP|20201214</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0550</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|436|Saliva|20201214</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0554</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|437|NP-OP|20201218</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0560</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|444|NP-OP|20210108</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0576</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|445|Saliva|20210111</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0586</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|447|Saliva|20210111</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0588</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|448|Saliva|20210115</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0596</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|452|Saliva|20210115</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0600</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|453|NP-OP|20210115</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0601</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|459|Saliva|20200127</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.7</t>
+    <t xml:space="preserve">VSP0654</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|461|Saliva|20200127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0657</t>
   </si>
 </sst>
 </file>
@@ -676,703 +904,703 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
